--- a/templates/ENG/country_data.xlsx
+++ b/templates/ENG/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfernandoquezada/Documents/GitHub/omrat/template/ENG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/templates/ENG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421454B-24A0-CB47-A2BC-441F244F2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5421454B-24A0-CB47-A2BC-441F244F2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F023E9DA-B969-4EAE-B8A0-D18BD2D71545}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33400" windowHeight="19360" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -573,9 +573,6 @@
     <t>Presence of rapid response team</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of subnational hospitals with trained staff to do triage and isolation for measles/rubella highly suspected cases </t>
-  </si>
-  <si>
     <t>Fill in the data table below according to the following requirements:</t>
   </si>
   <si>
@@ -640,6 +637,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Subnational areas with a team that has been trained in outbreak response in the last 2 years</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,12 +1578,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1603,12 +1603,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1627,11 +1627,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1651,11 +1651,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1675,11 +1675,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1744,11 +1744,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1840,7 +1840,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2319,9 +2319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2359,7 +2359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2465,7 +2465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2607,7 +2607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2618,30 +2618,30 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="70.5" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="31" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2649,31 +2649,31 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -2710,17 +2710,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="13.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="45" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="39"/>
       <c r="B2" s="41"/>
       <c r="C2" s="33"/>
@@ -2748,7 +2748,7 @@
       <c r="E2" s="38"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="39"/>
       <c r="B3" s="41"/>
       <c r="C3" s="33"/>
@@ -2756,7 +2756,7 @@
       <c r="E3" s="38"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="39"/>
       <c r="B4" s="41"/>
       <c r="C4" s="33"/>
@@ -2764,7 +2764,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="39"/>
       <c r="B5" s="41"/>
       <c r="C5" s="33"/>
@@ -2772,7 +2772,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="39"/>
       <c r="B6" s="41"/>
       <c r="C6" s="33"/>
@@ -2780,7 +2780,7 @@
       <c r="E6" s="38"/>
       <c r="F6" s="40"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="39"/>
       <c r="B7" s="41"/>
       <c r="C7" s="33"/>
@@ -2805,25 +2805,25 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="27" customWidth="1"/>
-    <col min="10" max="11" width="8.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="10.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="27" customWidth="1"/>
+    <col min="10" max="11" width="8.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="7.36328125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="61" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="O2" s="56"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="39"/>
       <c r="B3" s="41"/>
       <c r="C3" s="1"/>
@@ -2918,7 +2918,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="39"/>
       <c r="B4" s="41"/>
       <c r="C4" s="1"/>
@@ -2935,7 +2935,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="39"/>
       <c r="B5" s="41"/>
       <c r="C5" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="39"/>
       <c r="B6" s="41"/>
       <c r="C6" s="1"/>
@@ -2969,7 +2969,7 @@
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="39"/>
       <c r="B7" s="41"/>
       <c r="C7" s="1"/>
@@ -2986,7 +2986,7 @@
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="39"/>
       <c r="B8" s="41"/>
       <c r="C8" s="1"/>
@@ -3003,7 +3003,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="D10" s="32"/>
     </row>
   </sheetData>
@@ -3030,21 +3030,21 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="27" customWidth="1"/>
     <col min="7" max="7" width="17" style="27" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" style="27" customWidth="1"/>
     <col min="9" max="9" width="30" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="27"/>
+    <col min="10" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="58" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -3099,7 +3099,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="39"/>
       <c r="B3" s="41"/>
       <c r="C3" s="1"/>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="39"/>
       <c r="B4" s="41"/>
       <c r="C4" s="1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="39"/>
       <c r="B5" s="41"/>
       <c r="C5" s="1"/>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="39"/>
       <c r="B6" s="41"/>
       <c r="C6" s="1"/>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="39"/>
       <c r="B7" s="41"/>
       <c r="C7" s="1"/>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="39"/>
       <c r="B8" s="41"/>
       <c r="C8" s="1"/>
@@ -3223,24 +3223,24 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="27" customWidth="1"/>
+    <col min="1" max="2" width="12.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="27" customWidth="1"/>
     <col min="10" max="10" width="20" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="27" customWidth="1"/>
-    <col min="13" max="16" width="20.83203125" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="27"/>
+    <col min="11" max="11" width="19.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" style="27" customWidth="1"/>
+    <col min="13" max="16" width="20.81640625" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="112.5" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="29" customHeight="1">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -3316,7 +3316,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="39"/>
       <c r="B3" s="41"/>
       <c r="C3" s="1"/>
@@ -3330,7 +3330,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="39"/>
       <c r="B4" s="41"/>
       <c r="C4" s="1"/>
@@ -3344,7 +3344,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="39"/>
       <c r="B5" s="41"/>
       <c r="C5" s="1"/>
@@ -3358,7 +3358,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="39"/>
       <c r="B6" s="41"/>
       <c r="C6" s="1"/>
@@ -3372,7 +3372,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="39"/>
       <c r="B7" s="41"/>
       <c r="C7" s="1"/>
@@ -3386,7 +3386,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="39"/>
       <c r="B8" s="41"/>
       <c r="C8" s="1"/>
@@ -3435,38 +3435,38 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="35.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="23.5">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="9"/>
       <c r="F1" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
@@ -3482,14 +3482,14 @@
       <c r="R1" s="10"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
@@ -3505,7 +3505,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.5">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17" t="str">
@@ -3515,7 +3515,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
@@ -3531,14 +3531,14 @@
       <c r="R3" s="11"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="62"/>
       <c r="H4" s="62"/>
@@ -3554,14 +3554,14 @@
       <c r="R4" s="11"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
@@ -3577,14 +3577,14 @@
       <c r="R5" s="11"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -3600,7 +3600,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3621,7 +3621,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3642,7 +3642,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3663,45 +3663,45 @@
       <c r="R9" s="14"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>29</v>
@@ -3722,12 +3722,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
@@ -3748,40 +3748,40 @@
         <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3802,7 +3802,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="G14" s="28"/>
       <c r="K14" s="28"/>
       <c r="M14" s="45"/>
@@ -3871,7 +3871,7 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="G16" s="26"/>
@@ -3913,7 +3913,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="G17" s="26"/>
@@ -3926,7 +3926,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="G18" s="26"/>
@@ -3939,7 +3939,7 @@
       <c r="Q18" s="28"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="G19" s="26"/>
@@ -3952,7 +3952,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="G20" s="26"/>
@@ -3965,7 +3965,7 @@
       <c r="Q20" s="28"/>
       <c r="R20" s="26"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="G21" s="26"/>
@@ -3978,7 +3978,7 @@
       <c r="Q21" s="28"/>
       <c r="R21" s="26"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="G22" s="26"/>
@@ -3991,7 +3991,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="26"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="G23" s="26"/>
@@ -4004,7 +4004,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="26"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="G24" s="26"/>
@@ -4017,7 +4017,7 @@
       <c r="Q24" s="28"/>
       <c r="R24" s="26"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="G25" s="26"/>
@@ -4030,7 +4030,7 @@
       <c r="Q25" s="28"/>
       <c r="R25" s="26"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="G26" s="26"/>
@@ -4043,7 +4043,7 @@
       <c r="Q26" s="28"/>
       <c r="R26" s="26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="G27" s="26"/>
@@ -4056,7 +4056,7 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="G28" s="26"/>
@@ -4069,7 +4069,7 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="26"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="G29" s="26"/>
@@ -4082,7 +4082,7 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="26"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="G30" s="26"/>
@@ -4095,7 +4095,7 @@
       <c r="Q30" s="28"/>
       <c r="R30" s="26"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="G31" s="26"/>
@@ -4108,7 +4108,7 @@
       <c r="Q31" s="28"/>
       <c r="R31" s="26"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="G32" s="26"/>
@@ -4121,7 +4121,7 @@
       <c r="Q32" s="28"/>
       <c r="R32" s="26"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="G33" s="26"/>
@@ -4134,7 +4134,7 @@
       <c r="Q33" s="28"/>
       <c r="R33" s="26"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="G34" s="26"/>
@@ -4147,7 +4147,7 @@
       <c r="Q34" s="28"/>
       <c r="R34" s="26"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="G35" s="26"/>
@@ -4160,7 +4160,7 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="26"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="G36" s="26"/>
@@ -4173,7 +4173,7 @@
       <c r="Q36" s="28"/>
       <c r="R36" s="26"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="G37" s="26"/>
@@ -4186,7 +4186,7 @@
       <c r="Q37" s="28"/>
       <c r="R37" s="26"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="G38" s="26"/>
@@ -4199,7 +4199,7 @@
       <c r="Q38" s="28"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="G39" s="26"/>
@@ -4212,7 +4212,7 @@
       <c r="Q39" s="28"/>
       <c r="R39" s="26"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="G40" s="26"/>
@@ -4225,7 +4225,7 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="26"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="G41" s="26"/>
@@ -4238,7 +4238,7 @@
       <c r="Q41" s="28"/>
       <c r="R41" s="26"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="G42" s="26"/>
@@ -4251,7 +4251,7 @@
       <c r="Q42" s="28"/>
       <c r="R42" s="26"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="G43" s="26"/>
@@ -4264,7 +4264,7 @@
       <c r="Q43" s="28"/>
       <c r="R43" s="26"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="G44" s="26"/>
@@ -4277,7 +4277,7 @@
       <c r="Q44" s="28"/>
       <c r="R44" s="26"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="G45" s="26"/>
@@ -4290,7 +4290,7 @@
       <c r="Q45" s="28"/>
       <c r="R45" s="26"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="G46" s="26"/>
@@ -4303,7 +4303,7 @@
       <c r="Q46" s="28"/>
       <c r="R46" s="26"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="G47" s="26"/>
@@ -4316,7 +4316,7 @@
       <c r="Q47" s="28"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="G48" s="26"/>
@@ -4329,7 +4329,7 @@
       <c r="Q48" s="28"/>
       <c r="R48" s="26"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="G49" s="26"/>
@@ -4342,7 +4342,7 @@
       <c r="Q49" s="28"/>
       <c r="R49" s="26"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="G50" s="26"/>
@@ -4355,7 +4355,7 @@
       <c r="Q50" s="28"/>
       <c r="R50" s="26"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="G51" s="26"/>
@@ -4368,7 +4368,7 @@
       <c r="Q51" s="28"/>
       <c r="R51" s="26"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="G52" s="26"/>
@@ -4381,7 +4381,7 @@
       <c r="Q52" s="28"/>
       <c r="R52" s="26"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="G53" s="26"/>
@@ -4394,7 +4394,7 @@
       <c r="Q53" s="28"/>
       <c r="R53" s="26"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="G54" s="26"/>
@@ -4407,7 +4407,7 @@
       <c r="Q54" s="28"/>
       <c r="R54" s="26"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="G55" s="26"/>
@@ -4481,21 +4481,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="10.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="27" customWidth="1"/>
+    <col min="1" max="2" width="10.36328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="27" customWidth="1"/>
     <col min="5" max="5" width="24" style="27" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="6" max="6" width="33.453125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="91.75" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
@@ -4512,10 +4512,10 @@
         <v>70</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="1"/>
@@ -4523,7 +4523,7 @@
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
@@ -4531,7 +4531,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -4539,7 +4539,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="1"/>
@@ -4547,7 +4547,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="1"/>
@@ -4555,7 +4555,7 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="1"/>
@@ -4574,7 +4574,7 @@
           <x14:formula1>
             <xm:f>_ListValues!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E2:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4593,25 +4593,25 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="6"/>
-    <col min="11" max="11" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="6"/>
     <col min="13" max="13" width="8" style="6" customWidth="1"/>
     <col min="14" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -4696,18 +4696,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="E6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
@@ -4727,6 +4727,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C69FE739999C447A76F1EF8B3FD66E4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbd048430c8551c34c2c3c8571f1b260">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4655c133-e14e-4d88-8fbc-c3b347145ec5" xmlns:ns4="64ced670-a384-4657-ba0f-fc07d30f5a44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5457dbb80d17598a17de4d439e456cf2" ns3:_="" ns4:_="">
     <xsd:import namespace="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
@@ -4949,22 +4964,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
+    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C9E008-75C3-4280-8CCC-7498B59407BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4981,29 +5006,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
-    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>